--- a/Processed_Data.xlsx
+++ b/Processed_Data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="24">
   <si>
     <t>2011</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Russian Federation</t>
+    <t>Russia</t>
   </si>
   <si>
     <t>India</t>
@@ -81,7 +81,7 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>Korea, Rep.</t>
+    <t>South Korea</t>
   </si>
   <si>
     <t>Brazil</t>
@@ -103,192 +103,6 @@
   </si>
   <si>
     <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Macao SAR, China</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Yemen, Rep.</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Micronesia, Fed. Sts.</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Rep.</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Venezuela, RB</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Bahamas, The</t>
-  </si>
-  <si>
-    <t>Angola</t>
   </si>
 </sst>
 </file>
@@ -973,262 +787,262 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>8.072212269999442</v>
+        <v>7.23005440589646</v>
       </c>
       <c r="C2">
-        <v>3.648808805940281</v>
+        <v>7.676602967786652</v>
       </c>
       <c r="D2">
-        <v>6.052696841555121</v>
+        <v>8.976127750292889</v>
       </c>
       <c r="E2">
-        <v>9.128366762177651</v>
+        <v>10.67790876095017</v>
       </c>
       <c r="F2">
-        <v>15.57890510858662</v>
+        <v>13.3256728273341</v>
       </c>
       <c r="G2">
-        <v>18.02342259317473</v>
+        <v>9.872738577439147</v>
       </c>
       <c r="H2">
-        <v>13.47757990514326</v>
+        <v>10.22384640764149</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>7.23005440589646</v>
+        <v>3.433043883288417</v>
       </c>
       <c r="C3">
-        <v>7.676602967786652</v>
+        <v>3.689243121488797</v>
       </c>
       <c r="D3">
-        <v>8.976127750292889</v>
+        <v>3.854042641229721</v>
       </c>
       <c r="E3">
-        <v>10.67790876095017</v>
+        <v>4.112994299497485</v>
       </c>
       <c r="F3">
-        <v>13.3256728273341</v>
+        <v>4.871232069485794</v>
       </c>
       <c r="G3">
-        <v>9.872738577439147</v>
+        <v>5.423403479818285</v>
       </c>
       <c r="H3">
-        <v>10.22384640764149</v>
+        <v>4.226104046214039</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-3.717809441130425</v>
+        <v>4.84017419607605</v>
       </c>
       <c r="C4">
-        <v>-2.027243080361212</v>
+        <v>4.477401191305714</v>
       </c>
       <c r="D4">
-        <v>-0.03121687636046327</v>
+        <v>4.046679193053859</v>
       </c>
       <c r="E4">
-        <v>1.591684170881323</v>
+        <v>3.695914588763701</v>
       </c>
       <c r="F4">
-        <v>3.068358205173893</v>
+        <v>3.47785963326163</v>
       </c>
       <c r="G4">
-        <v>5.308853498871742</v>
+        <v>3.418956944636866</v>
       </c>
       <c r="H4">
-        <v>9.73543730127072</v>
+        <v>3.313393144082796</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>7.367786696401988</v>
+        <v>2.722569581621758</v>
       </c>
       <c r="C5">
-        <v>12.09060520505641</v>
+        <v>2.583494307265841</v>
       </c>
       <c r="D5">
-        <v>11.15937721339017</v>
+        <v>2.553076104130175</v>
       </c>
       <c r="E5">
-        <v>10.17950703794128</v>
+        <v>2.496856994863313</v>
       </c>
       <c r="F5">
-        <v>11.0140162964875</v>
+        <v>2.438475985570172</v>
       </c>
       <c r="G5">
-        <v>12.11956982256953</v>
+        <v>2.468087525640472</v>
       </c>
       <c r="H5">
-        <v>9.635773346538226</v>
+        <v>2.433675289518205</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>5.47009250509192</v>
+        <v>2.472960266496326</v>
       </c>
       <c r="C6">
-        <v>5.078637245181292</v>
+        <v>2.49930148191373</v>
       </c>
       <c r="D6">
-        <v>6.039632294945804</v>
+        <v>2.503015819997234</v>
       </c>
       <c r="E6">
-        <v>5.644499470118966</v>
+        <v>2.529935862613889</v>
       </c>
       <c r="F6">
-        <v>6.965172427164126</v>
+        <v>2.494981364523618</v>
       </c>
       <c r="G6">
-        <v>7.413746293607298</v>
+        <v>2.458835964108596</v>
       </c>
       <c r="H6">
-        <v>7.260297297887526</v>
+        <v>2.412134123402594</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>4.926461802842049</v>
+        <v>1.891406880427581</v>
       </c>
       <c r="C7">
-        <v>4.572821397890861</v>
+        <v>1.871079641612401</v>
       </c>
       <c r="D7">
-        <v>4.079527175546314</v>
+        <v>1.849876364932181</v>
       </c>
       <c r="E7">
-        <v>3.968921443750248</v>
+        <v>1.862961530225393</v>
       </c>
       <c r="F7">
-        <v>4.082576056598719</v>
+        <v>1.872173070666917</v>
       </c>
       <c r="G7">
-        <v>5.711288009639665</v>
+        <v>1.916839940186815</v>
       </c>
       <c r="H7">
-        <v>6.734729907211162</v>
+        <v>1.895676259050771</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>4.320623292120245</v>
+        <v>1.827018499970345</v>
       </c>
       <c r="C8">
-        <v>4.461884668700701</v>
+        <v>1.844656994545688</v>
       </c>
       <c r="D8">
-        <v>4.845211431071818</v>
+        <v>1.879548756117621</v>
       </c>
       <c r="E8">
-        <v>4.547067933706542</v>
+        <v>1.916554799928882</v>
       </c>
       <c r="F8">
-        <v>6.259089126633604</v>
+        <v>1.938891348852746</v>
       </c>
       <c r="G8">
-        <v>6.385882092534239</v>
+        <v>1.926457363815219</v>
       </c>
       <c r="H8">
-        <v>5.919826399820678</v>
+        <v>1.855878737611734</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>3.500741400031746</v>
+        <v>2.266393705446499</v>
       </c>
       <c r="C9">
-        <v>3.413295564209972</v>
+        <v>2.162590971447644</v>
       </c>
       <c r="D9">
-        <v>3.271721322120239</v>
+        <v>2.04096528227842</v>
       </c>
       <c r="E9">
-        <v>3.586086678804956</v>
+        <v>1.931679481814195</v>
       </c>
       <c r="F9">
-        <v>5.005907431870354</v>
+        <v>1.839184285428111</v>
       </c>
       <c r="G9">
-        <v>5.8917548195457</v>
+        <v>1.785964569218665</v>
       </c>
       <c r="H9">
-        <v>5.604169230082133</v>
+        <v>1.741534589384375</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>5.799253038839731</v>
+        <v>1.248942361044869</v>
       </c>
       <c r="C10">
-        <v>5.677213485338015</v>
+        <v>1.260731293540378</v>
       </c>
       <c r="D10">
-        <v>5.57853746357925</v>
+        <v>1.201949531673525</v>
       </c>
       <c r="E10">
-        <v>5.75337008598266</v>
+        <v>1.138438890887187</v>
       </c>
       <c r="F10">
-        <v>5.509027550975622</v>
+        <v>1.103023638942705</v>
       </c>
       <c r="G10">
-        <v>5.483035999131065</v>
+        <v>1.145636031989585</v>
       </c>
       <c r="H10">
-        <v>5.501469856529097</v>
+        <v>1.150430267082506</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>5.401641630676959</v>
+        <v>0.9868065377476609</v>
       </c>
       <c r="C11">
-        <v>4.65572090662121</v>
+        <v>0.9674265420336029</v>
       </c>
       <c r="D11">
-        <v>4.19373981956594</v>
+        <v>0.9508654542481331</v>
       </c>
       <c r="E11">
-        <v>4.203452619078883</v>
+        <v>0.9669993344697937</v>
       </c>
       <c r="F11">
-        <v>4.185162947275306</v>
+        <v>0.9592513303663838</v>
       </c>
       <c r="G11">
-        <v>4.435506300704965</v>
+        <v>0.9440513486913</v>
       </c>
       <c r="H11">
-        <v>4.684296038835502</v>
+        <v>0.9325723501110992</v>
       </c>
     </row>
   </sheetData>
@@ -1269,262 +1083,262 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>6.4545202255249</v>
+        <v>5.73741006851196</v>
       </c>
       <c r="C2">
-        <v>7.374700069427489</v>
+        <v>5.85510015487671</v>
       </c>
       <c r="D2">
-        <v>7.48535013198853</v>
+        <v>5.8388500213623</v>
       </c>
       <c r="E2">
-        <v>7.69504022598267</v>
+        <v>5.948480129241941</v>
       </c>
       <c r="F2">
-        <v>7.569330215454098</v>
+        <v>6.24105978012085</v>
       </c>
       <c r="G2">
-        <v>8.03055000305176</v>
+        <v>6.314040184021</v>
       </c>
       <c r="H2">
-        <v>7.911980152130131</v>
+        <v>6.32254981994629</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>8.484860420227049</v>
+        <v>4.623</v>
       </c>
       <c r="C3">
-        <v>7.23782014846802</v>
+        <v>4.579</v>
       </c>
       <c r="D3">
-        <v>8.494429588317869</v>
+        <v>4.573</v>
       </c>
       <c r="E3">
-        <v>7.634850025176999</v>
+        <v>4.577</v>
       </c>
       <c r="F3">
-        <v>8.78697896521594</v>
+        <v>4.538</v>
       </c>
       <c r="G3">
-        <v>8.414778400316413</v>
+        <v>5.246980920759797</v>
       </c>
       <c r="H3">
-        <v>7.81608009338379</v>
+        <v>5.45160007476807</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>6.81823015213013</v>
+        <v>5.59523010253906</v>
       </c>
       <c r="C4">
-        <v>7.596360206604001</v>
+        <v>4.587</v>
       </c>
       <c r="D4">
-        <v>7.491219997406009</v>
+        <v>5.529799938201902</v>
       </c>
       <c r="E4">
-        <v>7.68858003616333</v>
+        <v>5.59899997711182</v>
       </c>
       <c r="F4">
-        <v>7.51290988922119</v>
+        <v>5.556159973144531</v>
       </c>
       <c r="G4">
-        <v>7.495210170745849</v>
+        <v>5.426700115203861</v>
       </c>
       <c r="H4">
-        <v>7.658219814300539</v>
+        <v>5.442090034484861</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>6.366919994354252</v>
+        <v>5.07451009750366</v>
       </c>
       <c r="C5">
-        <v>7.5369701385498</v>
+        <v>4.868999958038329</v>
       </c>
       <c r="D5">
-        <v>7.611209869384767</v>
+        <v>5.22974014282227</v>
       </c>
       <c r="E5">
-        <v>7.573729991912839</v>
+        <v>5.164770126342769</v>
       </c>
       <c r="F5">
-        <v>7.4439001083374</v>
+        <v>5.311270236968991</v>
       </c>
       <c r="G5">
-        <v>7.61861991882324</v>
+        <v>5.276780128478999</v>
       </c>
       <c r="H5">
-        <v>7.56883001327515</v>
+        <v>5.124249935150151</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>5.654965590412227</v>
+        <v>4.824870109558111</v>
       </c>
       <c r="C6">
-        <v>6.029868026640467</v>
+        <v>4.95658016204834</v>
       </c>
       <c r="D6">
-        <v>6.42536020278931</v>
+        <v>4.96111011505127</v>
       </c>
       <c r="E6">
-        <v>6.61472988128662</v>
+        <v>4.93962001800537</v>
       </c>
       <c r="F6">
-        <v>6.8888897895813</v>
+        <v>4.83498001098633</v>
       </c>
       <c r="G6">
-        <v>7.28477001190186</v>
+        <v>4.84021997451782</v>
       </c>
       <c r="H6">
-        <v>7.509890079498289</v>
+        <v>4.90511989593506</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>6.455349922180178</v>
+        <v>2.628</v>
       </c>
       <c r="C7">
-        <v>6.689839839935299</v>
+        <v>3.79310011863709</v>
       </c>
       <c r="D7">
-        <v>6.84933996200562</v>
+        <v>3.76382994651794</v>
       </c>
       <c r="E7">
-        <v>6.86952018737793</v>
+        <v>4.013879776000981</v>
       </c>
       <c r="F7">
-        <v>7.0825400352478</v>
+        <v>3.83402991294861</v>
       </c>
       <c r="G7">
-        <v>7.097680091857909</v>
+        <v>3.76044011116028</v>
       </c>
       <c r="H7">
-        <v>7.315720081329349</v>
+        <v>4.689909934997559</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>4.76523017883301</v>
+        <v>4.529000000000001</v>
       </c>
       <c r="C8">
-        <v>5.223812353827724</v>
+        <v>4.356</v>
       </c>
       <c r="D8">
-        <v>5.72275018692017</v>
+        <v>4.931049823760992</v>
       </c>
       <c r="E8">
-        <v>6.04489994049072</v>
+        <v>4.96174001693726</v>
       </c>
       <c r="F8">
-        <v>7.590099811553959</v>
+        <v>4.114</v>
       </c>
       <c r="G8">
-        <v>6.993330001831049</v>
+        <v>4.531390329672774</v>
       </c>
       <c r="H8">
-        <v>7.2257399559021</v>
+        <v>4.475697094151233</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>6.122282369924444</v>
+        <v>4.11568021774292</v>
       </c>
       <c r="C9">
-        <v>6.250370025634769</v>
+        <v>4.05601978302002</v>
       </c>
       <c r="D9">
-        <v>6.110544170501412</v>
+        <v>4.14367008209229</v>
       </c>
       <c r="E9">
-        <v>5.955953892512201</v>
+        <v>4.06127977371216</v>
       </c>
       <c r="F9">
-        <v>6.596010208129879</v>
+        <v>4.073629856109619</v>
       </c>
       <c r="G9">
-        <v>6.838306825875852</v>
+        <v>3.81578993797302</v>
       </c>
       <c r="H9">
-        <v>7.208762941328947</v>
+        <v>4.044939994812011</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>5.02421864867313</v>
+        <v>3.64258003234863</v>
       </c>
       <c r="C10">
-        <v>5.500121203867541</v>
+        <v>3.69226002693176</v>
       </c>
       <c r="D10">
-        <v>5.874929904937741</v>
+        <v>3.66538000106812</v>
       </c>
       <c r="E10">
-        <v>7.0901198387146</v>
+        <v>3.59059000015259</v>
       </c>
       <c r="F10">
-        <v>6.41297006607056</v>
+        <v>2.929</v>
       </c>
       <c r="G10">
-        <v>7.073785553706237</v>
+        <v>3.18618011474609</v>
       </c>
       <c r="H10">
-        <v>7.198875810242204</v>
+        <v>3.18217992782593</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>10.0756998062134</v>
+        <v>3.79618000984192</v>
       </c>
       <c r="C11">
-        <v>7.241869926452639</v>
+        <v>3.8675000667572</v>
       </c>
       <c r="D11">
-        <v>5.66715002059937</v>
+        <v>3.84467005729675</v>
       </c>
       <c r="E11">
-        <v>7.51547002792358</v>
+        <v>3.560521331429591</v>
       </c>
       <c r="F11">
-        <v>8.43325996398926</v>
+        <v>3.503198169293959</v>
       </c>
       <c r="G11">
-        <v>8.05193996429443</v>
+        <v>3.258767560330586</v>
       </c>
       <c r="H11">
-        <v>7.06049013137817</v>
+        <v>2.86009915249415</v>
       </c>
     </row>
   </sheetData>
@@ -1565,262 +1379,262 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>15.39393616</v>
+        <v>16.29982948</v>
       </c>
       <c r="C2">
-        <v>15.32846642</v>
+        <v>16.28528976</v>
       </c>
       <c r="D2">
-        <v>18.12769699</v>
+        <v>16.21042252000001</v>
       </c>
       <c r="E2">
-        <v>16.86151695</v>
+        <v>16.40644836</v>
       </c>
       <c r="F2">
-        <v>16.69959259000001</v>
+        <v>16.71075249</v>
       </c>
       <c r="G2">
-        <v>16.88424873</v>
+        <v>17.04898262</v>
       </c>
       <c r="H2">
-        <v>17.72825432</v>
+        <v>17.00361443</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>16.29982948</v>
+        <v>11.20183182</v>
       </c>
       <c r="C3">
-        <v>16.28528976</v>
+        <v>11.31324291</v>
       </c>
       <c r="D3">
-        <v>16.21042252000001</v>
+        <v>11.43607998</v>
       </c>
       <c r="E3">
-        <v>16.40644836</v>
+        <v>11.58073521</v>
       </c>
       <c r="F3">
-        <v>16.71075249</v>
+        <v>11.46616745</v>
       </c>
       <c r="G3">
-        <v>17.04898262</v>
+        <v>11.50134468</v>
       </c>
       <c r="H3">
-        <v>17.00361443</v>
+        <v>11.39050198</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>13.28133965</v>
+        <v>10.77629662</v>
       </c>
       <c r="C4">
-        <v>10.59042263</v>
+        <v>10.84700775</v>
       </c>
       <c r="D4">
-        <v>11.56771851</v>
+        <v>10.99187183</v>
       </c>
       <c r="E4">
-        <v>19.72741699</v>
+        <v>11.01583958</v>
       </c>
       <c r="F4">
-        <v>20.41341209</v>
+        <v>11.17801952</v>
       </c>
       <c r="G4">
-        <v>16.52595901</v>
+        <v>11.23043633</v>
       </c>
       <c r="H4">
-        <v>16.6201725</v>
+        <v>11.32229614</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>14.56823158</v>
+        <v>10.61671734</v>
       </c>
       <c r="C5">
-        <v>14.31251717</v>
+        <v>10.79065323</v>
       </c>
       <c r="D5">
-        <v>14.61910725</v>
+        <v>10.79159355</v>
       </c>
       <c r="E5">
-        <v>14.72001648</v>
+        <v>10.83204937</v>
       </c>
       <c r="F5">
-        <v>17.35825539</v>
+        <v>10.88550663</v>
       </c>
       <c r="G5">
-        <v>17.64945793</v>
+        <v>10.83460999</v>
       </c>
       <c r="H5">
-        <v>16.40007591</v>
+        <v>10.79634285</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>13.09527493</v>
+        <v>9.973464970000002</v>
       </c>
       <c r="C6">
-        <v>12.31475735</v>
+        <v>10.0517683</v>
       </c>
       <c r="D6">
-        <v>12.17689991</v>
+        <v>9.97855186</v>
       </c>
       <c r="E6">
-        <v>11.76905727</v>
+        <v>9.95758438</v>
       </c>
       <c r="F6">
-        <v>12.49603271</v>
+        <v>9.904352189999997</v>
       </c>
       <c r="G6">
-        <v>13.17891884</v>
+        <v>9.86671162</v>
       </c>
       <c r="H6">
-        <v>12.31883812</v>
+        <v>9.82511234</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>10.81779194</v>
+        <v>7.78833342</v>
       </c>
       <c r="C7">
-        <v>11.63778973</v>
+        <v>7.73536205</v>
       </c>
       <c r="D7">
-        <v>12.12248993</v>
+        <v>7.97721243</v>
       </c>
       <c r="E7">
-        <v>12.17145729</v>
+        <v>8.396249770000001</v>
       </c>
       <c r="F7">
-        <v>11.39383602</v>
+        <v>8.87090969</v>
       </c>
       <c r="G7">
-        <v>12.00261879</v>
+        <v>9.20742226</v>
       </c>
       <c r="H7">
-        <v>12.12845135</v>
+        <v>9.46933746</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>10.34077358</v>
+        <v>8.54153824</v>
       </c>
       <c r="C8">
-        <v>10.61796474</v>
+        <v>8.67564774</v>
       </c>
       <c r="D8">
-        <v>10.83054256</v>
+        <v>8.76116371</v>
       </c>
       <c r="E8">
-        <v>10.99387455</v>
+        <v>9.035970689999999</v>
       </c>
       <c r="F8">
-        <v>11.36931515</v>
+        <v>9.32331181</v>
       </c>
       <c r="G8">
-        <v>11.70894909</v>
+        <v>9.200713159999999</v>
       </c>
       <c r="H8">
-        <v>11.89515591</v>
+        <v>9.20544815</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>8.56190681</v>
+        <v>8.774131769999999</v>
       </c>
       <c r="C9">
-        <v>7.89716816</v>
+        <v>8.783528329999998</v>
       </c>
       <c r="D9">
-        <v>8.805964469999999</v>
+        <v>8.77543831</v>
       </c>
       <c r="E9">
-        <v>9.52887821</v>
+        <v>8.86791897</v>
       </c>
       <c r="F9">
-        <v>10.10534763</v>
+        <v>8.85689163</v>
       </c>
       <c r="G9">
-        <v>10.96199989</v>
+        <v>8.72533035</v>
       </c>
       <c r="H9">
-        <v>11.77723598</v>
+        <v>8.677740099999999</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>11.31298637</v>
+        <v>6.008443830000001</v>
       </c>
       <c r="C10">
-        <v>9.299409870000002</v>
+        <v>6.13262033</v>
       </c>
       <c r="D10">
-        <v>10.43099499</v>
+        <v>6.24789429</v>
       </c>
       <c r="E10">
-        <v>12.1412344</v>
+        <v>6.47438097</v>
       </c>
       <c r="F10">
-        <v>12.81401348</v>
+        <v>6.65271664</v>
       </c>
       <c r="G10">
-        <v>12.2177515</v>
+        <v>6.91432714</v>
       </c>
       <c r="H10">
-        <v>11.7113266</v>
+        <v>7.106949330000001</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>10.16901398</v>
+        <v>4.32551336</v>
       </c>
       <c r="C11">
-        <v>9.23208618</v>
+        <v>4.5493989</v>
       </c>
       <c r="D11">
-        <v>9.235824579999999</v>
+        <v>4.71002245</v>
       </c>
       <c r="E11">
-        <v>10.09228325</v>
+        <v>4.77322769</v>
       </c>
       <c r="F11">
-        <v>15.1927681</v>
+        <v>4.888722899999999</v>
       </c>
       <c r="G11">
-        <v>14.08638191</v>
+        <v>4.98188066</v>
       </c>
       <c r="H11">
-        <v>11.58332348</v>
+        <v>5.151191710000001</v>
       </c>
     </row>
   </sheetData>
@@ -1953,140 +1767,140 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>-2949204821.742397</v>
+        <v>-2295163667.642799</v>
       </c>
       <c r="D6">
-        <v>-1112217843.474201</v>
+        <v>395350828.5172958</v>
       </c>
       <c r="E6">
-        <v>-215172989.7865982</v>
+        <v>-649634831.5493927</v>
       </c>
       <c r="F6">
-        <v>-8041912557.736603</v>
+        <v>-7195984343.7771</v>
       </c>
       <c r="G6">
-        <v>-392954781.5987968</v>
+        <v>2704833325.550194</v>
       </c>
       <c r="H6">
-        <v>5058303412.998699</v>
+        <v>2640867024.812798</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>-2295163667.642799</v>
+        <v>960052863.8428993</v>
       </c>
       <c r="D7">
-        <v>395350828.5172958</v>
+        <v>2359459904.8475</v>
       </c>
       <c r="E7">
-        <v>-649634831.5493927</v>
+        <v>3241078238.656696</v>
       </c>
       <c r="F7">
-        <v>-7195984343.7771</v>
+        <v>-981529631.2487946</v>
       </c>
       <c r="G7">
-        <v>2704833325.550194</v>
+        <v>314514107.4489975</v>
       </c>
       <c r="H7">
-        <v>2640867024.812798</v>
+        <v>2285398705.598198</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>960052863.8428993</v>
+        <v>-3904363606.335205</v>
       </c>
       <c r="D8">
-        <v>2359459904.8475</v>
+        <v>1784955044.497406</v>
       </c>
       <c r="E8">
-        <v>3241078238.656696</v>
+        <v>1133288451.138596</v>
       </c>
       <c r="F8">
-        <v>-981529631.2487946</v>
+        <v>-7487279258.301102</v>
       </c>
       <c r="G8">
-        <v>314514107.4489975</v>
+        <v>1723117912.129303</v>
       </c>
       <c r="H8">
-        <v>2285398705.598198</v>
+        <v>1825072697.689201</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>-562561730.5861988</v>
+        <v>-750683646.1936951</v>
       </c>
       <c r="D9">
-        <v>1724152054.9258</v>
+        <v>-10987597787.8393</v>
       </c>
       <c r="E9">
-        <v>1485225486.970701</v>
+        <v>-2120465794.339401</v>
       </c>
       <c r="F9">
-        <v>-1293256086.025103</v>
+        <v>-4797363306.725899</v>
       </c>
       <c r="G9">
-        <v>971388720.2094021</v>
+        <v>4365184408.453194</v>
       </c>
       <c r="H9">
-        <v>1945953537.316399</v>
+        <v>-1084255912.380692</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>-3904363606.335205</v>
+        <v>-1774778966.217003</v>
       </c>
       <c r="D10">
-        <v>1784955044.497406</v>
+        <v>-1633897132.309097</v>
       </c>
       <c r="E10">
-        <v>1133288451.138596</v>
+        <v>2321098965.974701</v>
       </c>
       <c r="F10">
-        <v>-7487279258.301102</v>
+        <v>-5320673060.964798</v>
       </c>
       <c r="G10">
-        <v>1723117912.129303</v>
+        <v>-5743241975.191002</v>
       </c>
       <c r="H10">
-        <v>1825072697.689201</v>
+        <v>-1685640116.872696</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>2216295926.3605</v>
+        <v>11231875979.76311</v>
       </c>
       <c r="D11">
-        <v>-4496776302.8293</v>
+        <v>6883496532.302094</v>
       </c>
       <c r="E11">
-        <v>-2096081813.659529</v>
+        <v>-3656391810.061996</v>
       </c>
       <c r="F11">
-        <v>687664500.4285297</v>
+        <v>-18278177829.5128</v>
       </c>
       <c r="G11">
-        <v>1675187743.753199</v>
+        <v>2826982636.997406</v>
       </c>
       <c r="H11">
-        <v>1667239075.175901</v>
+        <v>-2718005468.50251</v>
       </c>
     </row>
   </sheetData>
@@ -2288,71 +2102,71 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>1138312535.0975</v>
+        <v>1477620364.898331</v>
       </c>
       <c r="D9">
-        <v>824165765.5409203</v>
+        <v>700944026.3074493</v>
       </c>
       <c r="E9">
-        <v>-1793140730.396267</v>
+        <v>1218728252.034851</v>
       </c>
       <c r="F9">
-        <v>6135059502.45623</v>
+        <v>1089282195.603027</v>
       </c>
       <c r="G9">
-        <v>-3435528440.893764</v>
+        <v>1089282195.602783</v>
       </c>
       <c r="H9">
-        <v>4238633834.277618</v>
+        <v>1089282195.602783</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>1532840766.216991</v>
+        <v>-24721318889.81494</v>
       </c>
       <c r="D10">
-        <v>-3136181858.638302</v>
+        <v>29988293285.63318</v>
       </c>
       <c r="E10">
-        <v>-555938197.6127357</v>
+        <v>17480851624.76562</v>
       </c>
       <c r="F10">
-        <v>-202708144.0154266</v>
+        <v>-8825141687.621857</v>
       </c>
       <c r="G10">
-        <v>-1306013053.196129</v>
+        <v>-16506530990.37311</v>
       </c>
       <c r="H10">
-        <v>3756383766.350956</v>
+        <v>-1112077540.980408</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>103134111.0848808</v>
+        <v>4748364763.421967</v>
       </c>
       <c r="D11">
-        <v>2562536776.798407</v>
+        <v>-40062136572.19666</v>
       </c>
       <c r="E11">
-        <v>710321927.7250557</v>
+        <v>-14818158501.18668</v>
       </c>
       <c r="F11">
-        <v>-340703158.2565155</v>
+        <v>-45590722405.39137</v>
       </c>
       <c r="G11">
-        <v>1090416026.310875</v>
+        <v>28273190418.18791</v>
       </c>
       <c r="H11">
-        <v>2841035973.562653</v>
+        <v>-1968549045.188232</v>
       </c>
     </row>
   </sheetData>
@@ -2485,140 +2299,140 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>3723313430.585449</v>
+        <v>3101910301.475433</v>
       </c>
       <c r="D6">
-        <v>338319785.4853439</v>
+        <v>7244722018.874084</v>
       </c>
       <c r="E6">
-        <v>-3091509688.848824</v>
+        <v>10454581319.29672</v>
       </c>
       <c r="F6">
-        <v>9936958576.595238</v>
+        <v>1413324264.980759</v>
       </c>
       <c r="G6">
-        <v>-10650513364.4994</v>
+        <v>6208882617.675247</v>
       </c>
       <c r="H6">
-        <v>17116131025.33244</v>
+        <v>11687233320.3726</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>11106646631.04793</v>
+        <v>-16902463922.19629</v>
       </c>
       <c r="D7">
-        <v>7345711123.14743</v>
+        <v>17849430016.84406</v>
       </c>
       <c r="E7">
-        <v>-9779823155.424728</v>
+        <v>8824667477.446472</v>
       </c>
       <c r="F7">
-        <v>-34468882633.58812</v>
+        <v>-50732764325.51581</v>
       </c>
       <c r="G7">
-        <v>-4978921441.793182</v>
+        <v>4662075534.340942</v>
       </c>
       <c r="H7">
-        <v>16897697008.75746</v>
+        <v>11369655489.52985</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>1666067640.913589</v>
+        <v>14843296465.64438</v>
       </c>
       <c r="D8">
-        <v>8768194450.169151</v>
+        <v>3953419232.27388</v>
       </c>
       <c r="E8">
-        <v>4190841356.027161</v>
+        <v>-5490704050.587982</v>
       </c>
       <c r="F8">
-        <v>1830311727.82753</v>
+        <v>-6578752581.997757</v>
       </c>
       <c r="G8">
-        <v>4932107109.042343</v>
+        <v>-14800100456.93266</v>
       </c>
       <c r="H8">
-        <v>13205078923.6478</v>
+        <v>11135211513.85553</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>3101910301.475433</v>
+        <v>-17783312099.62158</v>
       </c>
       <c r="D9">
-        <v>7244722018.874084</v>
+        <v>4590803158.51944</v>
       </c>
       <c r="E9">
-        <v>10454581319.29672</v>
+        <v>3560440885.278259</v>
       </c>
       <c r="F9">
-        <v>1413324264.980759</v>
+        <v>-28866640571.22989</v>
       </c>
       <c r="G9">
-        <v>6208882617.675247</v>
+        <v>1065919509.181152</v>
       </c>
       <c r="H9">
-        <v>11687233320.3726</v>
+        <v>6570049903.480804</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>-16902463922.19629</v>
+        <v>6663685462.852692</v>
       </c>
       <c r="D10">
-        <v>17849430016.84406</v>
+        <v>6115694977.828491</v>
       </c>
       <c r="E10">
-        <v>8824667477.446472</v>
+        <v>27076055696.37585</v>
       </c>
       <c r="F10">
-        <v>-50732764325.51581</v>
+        <v>-15022825837.9082</v>
       </c>
       <c r="G10">
-        <v>4662075534.340942</v>
+        <v>-24220812524.35501</v>
       </c>
       <c r="H10">
-        <v>11369655489.52985</v>
+        <v>-3877142345.888214</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>14843296465.64438</v>
+        <v>15647136533.88049</v>
       </c>
       <c r="D11">
-        <v>3953419232.27388</v>
+        <v>-112983187740.2513</v>
       </c>
       <c r="E11">
-        <v>-5490704050.587982</v>
+        <v>-30984840427.99115</v>
       </c>
       <c r="F11">
-        <v>-6578752581.997757</v>
+        <v>-47582528953.62537</v>
       </c>
       <c r="G11">
-        <v>-14800100456.93266</v>
+        <v>55521149316.44647</v>
       </c>
       <c r="H11">
-        <v>11135211513.85553</v>
+        <v>-7894441524.330994</v>
       </c>
     </row>
   </sheetData>
@@ -2659,232 +2473,232 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.4297140290675139</v>
+        <v>-0.04869453832729986</v>
       </c>
       <c r="D2">
-        <v>0.2120985004935714</v>
+        <v>0.003952158527620542</v>
       </c>
       <c r="E2">
-        <v>-0.7492253682658367</v>
+        <v>0.07405709162215457</v>
       </c>
       <c r="F2">
-        <v>-0.7938293117391356</v>
+        <v>0.007490803230308263</v>
       </c>
       <c r="G2">
-        <v>-0.3194126598601096</v>
+        <v>0.104144429411289</v>
       </c>
       <c r="H2">
-        <v>1.130696022179038</v>
+        <v>0.1398683820125883</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>-0.495752420161291</v>
+        <v>0.1641619640531691</v>
       </c>
       <c r="D3">
-        <v>-0.9831528002967602</v>
+        <v>0.1862394804287588</v>
       </c>
       <c r="E3">
-        <v>-58.35704553960371</v>
+        <v>0.2050492390331244</v>
       </c>
       <c r="F3">
-        <v>1.205373405811986</v>
+        <v>0.0795353613397658</v>
       </c>
       <c r="G3">
-        <v>0.2056877898278249</v>
+        <v>-0.2696889709952992</v>
       </c>
       <c r="H3">
-        <v>0.5946806324933303</v>
+        <v>0.1056526491688758</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>0.05970864034919732</v>
+        <v>-0.04907813263984973</v>
       </c>
       <c r="D4">
-        <v>0.09945997395755968</v>
+        <v>0.008890213450349238</v>
       </c>
       <c r="E4">
-        <v>0.08124758137822585</v>
+        <v>-0.01447954544390251</v>
       </c>
       <c r="F4">
-        <v>-0.02252504990419213</v>
+        <v>-0.1627459512294581</v>
       </c>
       <c r="G4">
-        <v>-0.1244775033785862</v>
+        <v>0.07306396481976596</v>
       </c>
       <c r="H4">
-        <v>0.4594181191675382</v>
+        <v>0.06647887323388901</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>-0.02572999078770821</v>
+        <v>0.03097773331824594</v>
       </c>
       <c r="D5">
-        <v>-0.0187978892483498</v>
+        <v>0.07384444065084206</v>
       </c>
       <c r="E5">
-        <v>0.2870445505817194</v>
+        <v>0.09446117541437538</v>
       </c>
       <c r="F5">
-        <v>-0.4301546885611122</v>
+        <v>-0.02613767089082208</v>
       </c>
       <c r="G5">
-        <v>0.2767415840648062</v>
+        <v>0.008600150154753683</v>
       </c>
       <c r="H5">
-        <v>0.3834649953089806</v>
+        <v>0.06195963520068704</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>-0.07572845223013502</v>
+        <v>0.1407802598640848</v>
       </c>
       <c r="D6">
-        <v>0.08906351517269839</v>
+        <v>0.142893577774563</v>
       </c>
       <c r="E6">
-        <v>0.07872662610133618</v>
+        <v>0.1161424286216113</v>
       </c>
       <c r="F6">
-        <v>-0.01030020746028382</v>
+        <v>0.0682330104092117</v>
       </c>
       <c r="G6">
-        <v>-0.05582348563489892</v>
+        <v>0.009011861081045902</v>
       </c>
       <c r="H6">
-        <v>0.3718101224070434</v>
+        <v>0.0557382082195117</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>-0.1163866456903103</v>
+        <v>-0.07214155155872759</v>
       </c>
       <c r="D7">
-        <v>0.1662604252143547</v>
+        <v>0.03554518497606329</v>
       </c>
       <c r="E7">
-        <v>0.09743365609922949</v>
+        <v>0.02179339575842087</v>
       </c>
       <c r="F7">
-        <v>-0.04119537551639252</v>
+        <v>-0.1409111576068357</v>
       </c>
       <c r="G7">
-        <v>0.02463218697358904</v>
+        <v>0.03774837576327994</v>
       </c>
       <c r="H7">
-        <v>0.3698371945505781</v>
+        <v>0.03852754873699582</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>-0.1259143843609938</v>
+        <v>-0.03600084010379001</v>
       </c>
       <c r="D8">
-        <v>0.3633240147876771</v>
+        <v>-0.06339724629587495</v>
       </c>
       <c r="E8">
-        <v>-0.2140782334585679</v>
+        <v>-0.04628777628752601</v>
       </c>
       <c r="F8">
-        <v>-0.1751329847073072</v>
+        <v>-0.02154924057061791</v>
       </c>
       <c r="G8">
-        <v>-0.1236791131536318</v>
+        <v>0.009508555026723764</v>
       </c>
       <c r="H8">
-        <v>0.326406379739453</v>
+        <v>0.01077817387860547</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>0.04579025078507049</v>
+        <v>-0.01235444857488899</v>
       </c>
       <c r="D9">
-        <v>0.01445089979599201</v>
+        <v>-0.183091445130492</v>
       </c>
       <c r="E9">
-        <v>-0.2623963183827902</v>
+        <v>-0.04325368631674198</v>
       </c>
       <c r="F9">
-        <v>-0.1813827981683614</v>
+        <v>-0.1022816361604595</v>
       </c>
       <c r="G9">
-        <v>0.1904092848714249</v>
+        <v>0.1036710610989415</v>
       </c>
       <c r="H9">
-        <v>0.3185920945429601</v>
+        <v>-0.02333173806260391</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>0.2368566907376319</v>
+        <v>-0.02944692444965136</v>
       </c>
       <c r="D10">
-        <v>-0.154110923496558</v>
+        <v>-0.02793193929104054</v>
       </c>
       <c r="E10">
-        <v>1.313166986564299</v>
+        <v>0.04082003411046453</v>
       </c>
       <c r="F10">
-        <v>-0.2264263666235189</v>
+        <v>-0.08990226546909708</v>
       </c>
       <c r="G10">
-        <v>0.02342643840906167</v>
+        <v>-0.1066284615559516</v>
       </c>
       <c r="H10">
-        <v>0.295707038946883</v>
+        <v>-0.03503069672006853</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>0.06394514736326817</v>
+        <v>0.1599127552890351</v>
       </c>
       <c r="D11">
-        <v>0.1245967902929344</v>
+        <v>0.0844918035251303</v>
       </c>
       <c r="E11">
-        <v>0.06639502346987114</v>
+        <v>-0.04138394955246361</v>
       </c>
       <c r="F11">
-        <v>-0.1649982207128036</v>
+        <v>-0.2158079356909796</v>
       </c>
       <c r="G11">
-        <v>0.01036015338846119</v>
+        <v>0.04256329197345154</v>
       </c>
       <c r="H11">
-        <v>0.2783114295898128</v>
+        <v>-0.03925183510132224</v>
       </c>
     </row>
   </sheetData>
@@ -2925,232 +2739,232 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.3903726879211176</v>
+        <v>0.5578884162072268</v>
       </c>
       <c r="D2">
-        <v>0.07238514777302596</v>
+        <v>0.03010791027175563</v>
       </c>
       <c r="E2">
-        <v>0.1405255654366171</v>
+        <v>-0.04206184645240563</v>
       </c>
       <c r="F2">
-        <v>-0.0003230990210658646</v>
+        <v>-0.3675402863811777</v>
       </c>
       <c r="G2">
-        <v>-0.1576651838278095</v>
+        <v>-0.08155635396265282</v>
       </c>
       <c r="H2">
-        <v>0.5415489761769869</v>
+        <v>0.5376840870403889</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>0.5578884162072268</v>
+        <v>-0.03839326402133425</v>
       </c>
       <c r="D3">
-        <v>0.03010791027175563</v>
+        <v>0.0003063717760776186</v>
       </c>
       <c r="E3">
-        <v>-0.04206184645240563</v>
+        <v>0.01184903778318991</v>
       </c>
       <c r="F3">
-        <v>-0.3675402863811777</v>
+        <v>-0.2301049253874652</v>
       </c>
       <c r="G3">
-        <v>-0.08155635396265282</v>
+        <v>0.008036768423022922</v>
       </c>
       <c r="H3">
-        <v>0.5376840870403889</v>
+        <v>0.150309626096724</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>-0.02440818743808371</v>
+        <v>-0.102604260285495</v>
       </c>
       <c r="D4">
-        <v>-0.05561320583744356</v>
+        <v>0.04815920316662203</v>
       </c>
       <c r="E4">
-        <v>0.1928253470708785</v>
+        <v>-0.01172754017350108</v>
       </c>
       <c r="F4">
-        <v>-0.00720251720215892</v>
+        <v>-0.1471200242457971</v>
       </c>
       <c r="G4">
-        <v>0.1865076763753735</v>
+        <v>-0.04293816888405899</v>
       </c>
       <c r="H4">
-        <v>0.4768944295433708</v>
+        <v>0.1086528277166945</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>-0.1126310027774362</v>
+        <v>-0.07098833390281711</v>
       </c>
       <c r="D5">
-        <v>0.004757150416385914</v>
+        <v>0.04604214187876332</v>
       </c>
       <c r="E5">
-        <v>0.2047572170302698</v>
+        <v>0.01550395493711743</v>
       </c>
       <c r="F5">
-        <v>-0.04934943042415219</v>
+        <v>-0.1524222438898618</v>
       </c>
       <c r="G5">
-        <v>-0.128313666680593</v>
+        <v>0.1719179326297453</v>
       </c>
       <c r="H5">
-        <v>0.3400944971993856</v>
+        <v>0.09107399324770227</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>-0.007022381851914505</v>
+        <v>-0.03225439903987537</v>
       </c>
       <c r="D6">
-        <v>0.04957735540186525</v>
+        <v>0.05919748729740548</v>
       </c>
       <c r="E6">
-        <v>0.008393823790734167</v>
+        <v>0.03599301423986234</v>
       </c>
       <c r="F6">
-        <v>-0.1397161220961204</v>
+        <v>-0.1541695788124681</v>
       </c>
       <c r="G6">
-        <v>-0.05158391177388955</v>
+        <v>0.03427060783918123</v>
       </c>
       <c r="H6">
-        <v>0.3103955621612384</v>
+        <v>0.07627474481950358</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>0.1700100708775683</v>
+        <v>0.0622095923987831</v>
       </c>
       <c r="D7">
-        <v>0.03960940261626322</v>
+        <v>0.09495244244793177</v>
       </c>
       <c r="E7">
-        <v>-0.3586791103998836</v>
+        <v>-0.08053091658809386</v>
       </c>
       <c r="F7">
-        <v>-0.04536782331957168</v>
+        <v>-0.05277643117745068</v>
       </c>
       <c r="G7">
-        <v>-0.3753611487852736</v>
+        <v>-0.1114874767966066</v>
       </c>
       <c r="H7">
-        <v>0.2982948207569693</v>
+        <v>0.06776710733863078</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>-0.03420098536340643</v>
+        <v>0.002298746847373634</v>
       </c>
       <c r="D8">
-        <v>0.1410319145544672</v>
+        <v>0.1730977020070312</v>
       </c>
       <c r="E8">
-        <v>0.04974601996099071</v>
+        <v>0.05072438880237895</v>
       </c>
       <c r="F8">
-        <v>-0.08943991692098996</v>
+        <v>-0.137857342448143</v>
       </c>
       <c r="G8">
-        <v>0.0120523501067531</v>
+        <v>0.1310859506504156</v>
       </c>
       <c r="H8">
-        <v>0.2747341698140289</v>
+        <v>0.0301624868198529</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>-0.009200193918724842</v>
+        <v>0.02135095934112741</v>
       </c>
       <c r="D9">
-        <v>-0.009285623455168701</v>
+        <v>0.009916601541569259</v>
       </c>
       <c r="E9">
-        <v>-0.009372654394652846</v>
+        <v>0.01707264821846044</v>
       </c>
       <c r="F9">
-        <v>0.05811262874492962</v>
+        <v>0.01500314970879302</v>
       </c>
       <c r="G9">
-        <v>-0.2005298956237405</v>
+        <v>0.01478138241550697</v>
       </c>
       <c r="H9">
-        <v>0.2284594287389923</v>
+        <v>0.01456607568057922</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>-0.0598740824370837</v>
+        <v>-0.1661440181971747</v>
       </c>
       <c r="D10">
-        <v>0.212986825371547</v>
+        <v>0.2416983991348094</v>
       </c>
       <c r="E10">
-        <v>0.02944014636977976</v>
+        <v>0.1134667170927672</v>
       </c>
       <c r="F10">
-        <v>-0.2316214653787273</v>
+        <v>-0.05144585032355364</v>
       </c>
       <c r="G10">
-        <v>0.4860129851773438</v>
+        <v>-0.1014430612488946</v>
       </c>
       <c r="H10">
-        <v>0.2249745205107077</v>
+        <v>-0.007605994423499629</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>0.0821921918714541</v>
+        <v>0.02117061138941301</v>
       </c>
       <c r="D11">
-        <v>0.07386007235626102</v>
+        <v>-0.1749142234301039</v>
       </c>
       <c r="E11">
-        <v>0.1367371554493204</v>
+        <v>-0.07841265418343046</v>
       </c>
       <c r="F11">
-        <v>-0.0431498895098531</v>
+        <v>-0.2617772430790839</v>
       </c>
       <c r="G11">
-        <v>0.1829126500198783</v>
+        <v>0.2199088993976164</v>
       </c>
       <c r="H11">
-        <v>0.2135181418433554</v>
+        <v>-0.01255124556815979</v>
       </c>
     </row>
   </sheetData>
@@ -3191,232 +3005,232 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>0.1107106621709695</v>
+        <v>-0.06413076743263491</v>
       </c>
       <c r="D2">
-        <v>0.005051311941940195</v>
+        <v>0.03445250446385861</v>
       </c>
       <c r="E2">
-        <v>0.1548891758624846</v>
+        <v>0.0453728580526831</v>
       </c>
       <c r="F2">
-        <v>-0.1155122622250532</v>
+        <v>-0.2247138556784026</v>
       </c>
       <c r="G2">
-        <v>-0.04105059357019347</v>
+        <v>0.03418272052873927</v>
       </c>
       <c r="H2">
-        <v>0.449131062714454</v>
+        <v>0.1814391782157183</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.1318940474288808</v>
+        <v>0.1883535832290018</v>
       </c>
       <c r="D3">
-        <v>0.1289764685251944</v>
+        <v>0.1612795499529982</v>
       </c>
       <c r="E3">
-        <v>-0.008104074845074694</v>
+        <v>0.1092799062528049</v>
       </c>
       <c r="F3">
-        <v>-0.1498993272140903</v>
+        <v>0.08147636633631561</v>
       </c>
       <c r="G3">
-        <v>0.01200939974914239</v>
+        <v>0.03487582307534076</v>
       </c>
       <c r="H3">
-        <v>0.4282944714371375</v>
+        <v>0.1331318273870574</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>0.0270355117694614</v>
+        <v>0.04119446408435001</v>
       </c>
       <c r="D4">
-        <v>-0.1207447968280424</v>
+        <v>0.09240585676547619</v>
       </c>
       <c r="E4">
-        <v>0.1619275071065858</v>
+        <v>0.122067597519627</v>
       </c>
       <c r="F4">
-        <v>-0.08231722071831082</v>
+        <v>0.01470674445248243</v>
       </c>
       <c r="G4">
-        <v>0.1637596197078823</v>
+        <v>0.06367187412522646</v>
       </c>
       <c r="H4">
-        <v>0.3902828094818118</v>
+        <v>0.1126777645662251</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>-0.05670903344186107</v>
+        <v>0.1244247324614338</v>
       </c>
       <c r="D5">
-        <v>0.1044422433805632</v>
+        <v>0.02947262612579493</v>
       </c>
       <c r="E5">
-        <v>0.04601218208538094</v>
+        <v>-0.03976117380994215</v>
       </c>
       <c r="F5">
-        <v>0.08768050098896629</v>
+        <v>-0.04961299584476142</v>
       </c>
       <c r="G5">
-        <v>-0.07667693580557355</v>
+        <v>-0.1174400082568813</v>
       </c>
       <c r="H5">
-        <v>0.3431036791005024</v>
+        <v>0.1001164967965005</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.07456793347339841</v>
+        <v>-0.05178873358670366</v>
       </c>
       <c r="D6">
-        <v>0.006305449196057022</v>
+        <v>0.07236323166890202</v>
       </c>
       <c r="E6">
-        <v>-0.05725710973246623</v>
+        <v>0.04276896869542091</v>
       </c>
       <c r="F6">
-        <v>0.19521762426434</v>
+        <v>-0.1231416926466649</v>
       </c>
       <c r="G6">
-        <v>-0.1750608758755988</v>
+        <v>0.03799564801189148</v>
       </c>
       <c r="H6">
-        <v>0.3410375946064961</v>
+        <v>0.07072144647285894</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>-0.003048313213109388</v>
+        <v>0.04117580212546734</v>
       </c>
       <c r="D7">
-        <v>0.09244314953696642</v>
+        <v>0.03152915880310103</v>
       </c>
       <c r="E7">
-        <v>0.04410257940152018</v>
+        <v>0.05685264887239461</v>
       </c>
       <c r="F7">
-        <v>-0.1230372134936065</v>
+        <v>0.05908369491061793</v>
       </c>
       <c r="G7">
-        <v>-0.05316690310685912</v>
+        <v>0.0476853790092191</v>
       </c>
       <c r="H7">
-        <v>0.3151743613533877</v>
+        <v>0.0402058653708961</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>0.1873788694254703</v>
+        <v>-0.08842917667423178</v>
       </c>
       <c r="D8">
-        <v>0.1270801621882989</v>
+        <v>0.02504270205540493</v>
       </c>
       <c r="E8">
-        <v>0.1859063880181595</v>
+        <v>0.01894760560499709</v>
       </c>
       <c r="F8">
-        <v>-0.007492437980571975</v>
+        <v>-0.150763061652838</v>
       </c>
       <c r="G8">
-        <v>-0.04100633107863982</v>
+        <v>0.006555325162543868</v>
       </c>
       <c r="H8">
-        <v>0.2813898071052856</v>
+        <v>0.04014216994666642</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>0.06352703777476965</v>
+        <v>-0.05273283941778539</v>
       </c>
       <c r="D9">
-        <v>0.03676189984058453</v>
+        <v>0.05878723172207656</v>
       </c>
       <c r="E9">
-        <v>0.06616811048253912</v>
+        <v>0.02745037689926866</v>
       </c>
       <c r="F9">
-        <v>-0.03220748531084228</v>
+        <v>-0.1535951962110232</v>
       </c>
       <c r="G9">
-        <v>0.09821358119613444</v>
+        <v>0.0166759387901263</v>
       </c>
       <c r="H9">
-        <v>0.2736950505151967</v>
+        <v>0.04000145114893172</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>0.1133320777841602</v>
+        <v>0.02512461683401135</v>
       </c>
       <c r="D10">
-        <v>0.06732541194781216</v>
+        <v>0.02249334849316775</v>
       </c>
       <c r="E10">
-        <v>-0.08398066826210759</v>
+        <v>0.09739422417973254</v>
       </c>
       <c r="F10">
-        <v>-0.3231252456199334</v>
+        <v>-0.04924212270476691</v>
       </c>
       <c r="G10">
-        <v>-0.06895577483919735</v>
+        <v>-0.08350335200675996</v>
       </c>
       <c r="H10">
-        <v>0.2513579216530573</v>
+        <v>-0.0145846518441296</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>0.03729788964795766</v>
+        <v>0.02393552990102688</v>
       </c>
       <c r="D11">
-        <v>0.2178148381086495</v>
+        <v>-0.1687910385568328</v>
       </c>
       <c r="E11">
-        <v>-0.05064744684905964</v>
+        <v>-0.05568966540418296</v>
       </c>
       <c r="F11">
-        <v>-0.1463435646856988</v>
+        <v>-0.09056452686139727</v>
       </c>
       <c r="G11">
-        <v>-0.09384020511497071</v>
+        <v>0.1161976004056458</v>
       </c>
       <c r="H11">
-        <v>0.2425420874477169</v>
+        <v>-0.01480195363543713</v>
       </c>
     </row>
   </sheetData>
@@ -4641,262 +4455,262 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>2143.985068231889</v>
+        <v>1716.834375837049</v>
       </c>
       <c r="C2">
-        <v>2081.047776106918</v>
+        <v>1937.832422980744</v>
       </c>
       <c r="D2">
-        <v>2561.56691540825</v>
+        <v>2230.095993952986</v>
       </c>
       <c r="E2">
-        <v>2469.572314091647</v>
+        <v>2612.233259158377</v>
       </c>
       <c r="F2">
-        <v>2692.971348308476</v>
+        <v>2748.810833617325</v>
       </c>
       <c r="G2">
-        <v>2827.739750375309</v>
+        <v>1962.631076229098</v>
       </c>
       <c r="H2">
-        <v>2950.933609694072</v>
+        <v>2126.943029679889</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>1952.564799442054</v>
+        <v>2414.608897379038</v>
       </c>
       <c r="C3">
-        <v>1845.732379612022</v>
+        <v>2310.813855572389</v>
       </c>
       <c r="D3">
-        <v>2025.537321651058</v>
+        <v>2149.501612714037</v>
       </c>
       <c r="E3">
-        <v>2167.805972810278</v>
+        <v>2035.145927027664</v>
       </c>
       <c r="F3">
-        <v>1970.953502320056</v>
+        <v>1976.793914521471</v>
       </c>
       <c r="G3">
-        <v>2046.358081558823</v>
+        <v>1981.339708502019</v>
       </c>
       <c r="H3">
-        <v>2230.398322371329</v>
+        <v>1990.097556310036</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>1716.834375837049</v>
+        <v>620.6206342220336</v>
       </c>
       <c r="C4">
-        <v>1937.832422980744</v>
+        <v>636.4911229982885</v>
       </c>
       <c r="D4">
-        <v>2230.095993952986</v>
+        <v>680.3881400919607</v>
       </c>
       <c r="E4">
-        <v>2612.233259158377</v>
+        <v>739.9954931776533</v>
       </c>
       <c r="F4">
-        <v>2748.810833617325</v>
+        <v>716.8638109645474</v>
       </c>
       <c r="G4">
-        <v>1962.631076229098</v>
+        <v>720.1652798348925</v>
       </c>
       <c r="H4">
-        <v>2126.943029679889</v>
+        <v>762.6406684054571</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>2414.608897379038</v>
+        <v>828.2609189492948</v>
       </c>
       <c r="C5">
-        <v>2310.813855572389</v>
+        <v>764.7982558579541</v>
       </c>
       <c r="D5">
-        <v>2149.501612714037</v>
+        <v>787.9166209422287</v>
       </c>
       <c r="E5">
-        <v>2035.145927027664</v>
+        <v>801.2832852699705</v>
       </c>
       <c r="F5">
-        <v>1976.793914521471</v>
+        <v>685.9302318248218</v>
       </c>
       <c r="G5">
-        <v>1981.339708502019</v>
+        <v>709.9471811960277</v>
       </c>
       <c r="H5">
-        <v>1990.097556310036</v>
+        <v>735.7529223492796</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>1721.220066713228</v>
+        <v>952.7595553379521</v>
       </c>
       <c r="C6">
-        <v>1726.504807246237</v>
+        <v>918.2960641591397</v>
       </c>
       <c r="D6">
-        <v>1730.950190471784</v>
+        <v>886.6878356178701</v>
       </c>
       <c r="E6">
-        <v>1754.49480522737</v>
+        <v>916.1107326902923</v>
       </c>
       <c r="F6">
-        <v>1695.361748624105</v>
+        <v>827.170040282772</v>
       </c>
       <c r="G6">
-        <v>1760.804932491267</v>
+        <v>733.3908737454492</v>
       </c>
       <c r="H6">
-        <v>1813.657821557902</v>
+        <v>702.9080444945031</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>1702.469750898506</v>
+        <v>582.566367027795</v>
       </c>
       <c r="C7">
-        <v>1774.200491017548</v>
+        <v>552.9361078702943</v>
       </c>
       <c r="D7">
-        <v>1615.842222304425</v>
+        <v>556.3315244569434</v>
       </c>
       <c r="E7">
-        <v>1580.112881655339</v>
+        <v>545.9952154953614</v>
       </c>
       <c r="F7">
-        <v>1495.240991639998</v>
+        <v>453.1963407696765</v>
       </c>
       <c r="G7">
-        <v>1629.250894041983</v>
+        <v>482.3988900248794</v>
       </c>
       <c r="H7">
-        <v>1667.769182625486</v>
+        <v>512.5491188930249</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>1538.157211192114</v>
+        <v>491.3058047413535</v>
       </c>
       <c r="C8">
-        <v>2644.532162271531</v>
+        <v>568.9135532893331</v>
       </c>
       <c r="D8">
-        <v>2328.492417527279</v>
+        <v>615.6696157114836</v>
       </c>
       <c r="E8">
-        <v>2039.481944850139</v>
+        <v>588.9076717331398</v>
       </c>
       <c r="F8">
-        <v>1765.39388515291</v>
+        <v>460.9283104066383</v>
       </c>
       <c r="G8">
-        <v>1771.727568296174</v>
+        <v>479.7295277056535</v>
       </c>
       <c r="H8">
-        <v>1457.94268452945</v>
+        <v>460.4069544577953</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>1460.151845774254</v>
+        <v>475.3249461476387</v>
       </c>
       <c r="C9">
-        <v>1423.504686106654</v>
+        <v>470.2029334610269</v>
       </c>
       <c r="D9">
-        <v>1455.192597410091</v>
+        <v>384.667365584041</v>
       </c>
       <c r="E9">
-        <v>1428.159236011455</v>
+        <v>368.5177614987798</v>
       </c>
       <c r="F9">
-        <v>1120.768671553496</v>
+        <v>331.1764364429476</v>
       </c>
       <c r="G9">
-        <v>1145.737563952239</v>
+        <v>365.9314670241613</v>
       </c>
       <c r="H9">
-        <v>1225.2775480758</v>
+        <v>357.9819891171667</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1190.562671523455</v>
+        <v>102.644315873077</v>
       </c>
       <c r="C10">
-        <v>1153.215352276285</v>
+        <v>116.525475585386</v>
       </c>
       <c r="D10">
-        <v>1073.379631738339</v>
+        <v>132.5203342893987</v>
       </c>
       <c r="E10">
-        <v>1098.315453444223</v>
+        <v>147.1645670138491</v>
       </c>
       <c r="F10">
-        <v>1009.666228946362</v>
+        <v>156.4092528656802</v>
       </c>
       <c r="G10">
-        <v>1090.614215085788</v>
+        <v>156.9665459264586</v>
       </c>
       <c r="H10">
-        <v>1125.569872231266</v>
+        <v>164.791614242234</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>808.5982315844293</v>
+        <v>39.6978830908926</v>
       </c>
       <c r="C11">
-        <v>909.4097595539421</v>
+        <v>37.30254544557847</v>
       </c>
       <c r="D11">
-        <v>1024.77312894143</v>
+        <v>37.00954215197741</v>
       </c>
       <c r="E11">
-        <v>1104.179000016324</v>
+        <v>39.29757012662056</v>
       </c>
       <c r="F11">
-        <v>1051.150071396777</v>
+        <v>39.15230292024553</v>
       </c>
       <c r="G11">
-        <v>1055.929357436041</v>
+        <v>42.76120241880265</v>
       </c>
       <c r="H11">
-        <v>1025.861346865985</v>
+        <v>48.2269519258749</v>
       </c>
     </row>
   </sheetData>
@@ -4937,262 +4751,262 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>158156.5998257923</v>
+        <v>49886.81810949226</v>
       </c>
       <c r="C2">
-        <v>149010.2248986647</v>
+        <v>51610.60527833787</v>
       </c>
       <c r="D2">
-        <v>173058.3173726019</v>
+        <v>53117.66784981784</v>
       </c>
       <c r="E2">
-        <v>178845.631017897</v>
+        <v>55064.74454834274</v>
       </c>
       <c r="F2">
-        <v>167290.9399839074</v>
+        <v>56839.38177423167</v>
       </c>
       <c r="G2">
-        <v>165629.1904829255</v>
+        <v>57951.58408209967</v>
       </c>
       <c r="H2">
-        <v>173356.0512884164</v>
+        <v>60062.22231322114</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>169020.8878317697</v>
+        <v>46644.77602796802</v>
       </c>
       <c r="C3">
-        <v>157515.8990694446</v>
+        <v>43858.36305510769</v>
       </c>
       <c r="D3">
-        <v>177664.1156160895</v>
+        <v>46285.7640688407</v>
       </c>
       <c r="E3">
-        <v>189422.2187688403</v>
+        <v>47959.99327375989</v>
       </c>
       <c r="F3">
-        <v>166011.5091311596</v>
+        <v>41086.72967372523</v>
       </c>
       <c r="G3">
-        <v>170028.6557178645</v>
+        <v>42107.51727030743</v>
       </c>
       <c r="H3">
-        <v>167517.059727856</v>
+        <v>44552.81937190778</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>97774.16207174277</v>
+        <v>42038.57225019298</v>
       </c>
       <c r="C4">
-        <v>98431.8651810241</v>
+        <v>42462.77156814495</v>
       </c>
       <c r="D4">
-        <v>99471.63889786311</v>
+        <v>43444.53300195391</v>
       </c>
       <c r="E4">
-        <v>98467.68399398201</v>
+        <v>47425.6076805195</v>
       </c>
       <c r="F4">
-        <v>102005.6256418903</v>
+        <v>44974.83187717809</v>
       </c>
       <c r="G4">
-        <v>106885.8784893268</v>
+        <v>41064.13343162221</v>
       </c>
       <c r="H4">
-        <v>111820.5814663473</v>
+        <v>40361.41738321593</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>115761.5077050962</v>
+        <v>43790.7320482018</v>
       </c>
       <c r="C5">
-        <v>106749.0136229893</v>
+        <v>40874.70350534571</v>
       </c>
       <c r="D5">
-        <v>113625.13289956</v>
+        <v>42592.93409433417</v>
       </c>
       <c r="E5">
-        <v>118823.6483685749</v>
+        <v>43011.26310284175</v>
       </c>
       <c r="F5">
-        <v>101376.4965743388</v>
+        <v>36638.18492915699</v>
       </c>
       <c r="G5">
-        <v>104278.3909719046</v>
+        <v>37037.37418612201</v>
       </c>
       <c r="H5">
-        <v>107627.1510066947</v>
+        <v>38812.16103416813</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>77351.95888214311</v>
+        <v>48167.99726849655</v>
       </c>
       <c r="C6">
-        <v>79149.26855173022</v>
+        <v>48603.47664977489</v>
       </c>
       <c r="D6">
-        <v>83366.06635818102</v>
+        <v>40454.4474578903</v>
       </c>
       <c r="E6">
-        <v>92334.64631391708</v>
+        <v>38109.41211255728</v>
       </c>
       <c r="F6">
-        <v>85124.92498391932</v>
+        <v>34524.46986093369</v>
       </c>
       <c r="G6">
-        <v>82206.0089984701</v>
+        <v>38761.81815019249</v>
       </c>
       <c r="H6">
-        <v>83489.81703607408</v>
+        <v>38386.51114570569</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>66644.38534497723</v>
+        <v>38599.0622070321</v>
       </c>
       <c r="C7">
-        <v>76291.84749002304</v>
+        <v>35053.52624425726</v>
       </c>
       <c r="D7">
-        <v>89287.45401841153</v>
+        <v>35549.97469729545</v>
       </c>
       <c r="E7">
-        <v>93777.10679594245</v>
+        <v>35518.41529167496</v>
       </c>
       <c r="F7">
-        <v>75340.98698111511</v>
+        <v>30230.22630212963</v>
       </c>
       <c r="G7">
-        <v>74061.08603456586</v>
+        <v>30939.71424622982</v>
       </c>
       <c r="H7">
-        <v>81516.67492480754</v>
+        <v>32406.72031501349</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>72328.41260659491</v>
+        <v>25096.26388382394</v>
       </c>
       <c r="C8">
-        <v>72783.3197854203</v>
+        <v>25466.76051705948</v>
       </c>
       <c r="D8">
-        <v>73515.89628517922</v>
+        <v>27182.73431019356</v>
       </c>
       <c r="E8">
-        <v>74990.43274428675</v>
+        <v>29249.57522097425</v>
       </c>
       <c r="F8">
-        <v>76280.48661928083</v>
+        <v>28732.23107625986</v>
       </c>
       <c r="G8">
-        <v>78465.3573282461</v>
+        <v>29288.8704389833</v>
       </c>
       <c r="H8">
-        <v>81302.12296507289</v>
+        <v>31616.8434004683</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>88415.62803248914</v>
+        <v>13245.61249954477</v>
       </c>
       <c r="C9">
-        <v>83538.23002504195</v>
+        <v>12370.02420071488</v>
       </c>
       <c r="D9">
-        <v>85112.46439841416</v>
+        <v>12300.32488227573</v>
       </c>
       <c r="E9">
-        <v>86605.56337624203</v>
+        <v>12112.58820596972</v>
       </c>
       <c r="F9">
-        <v>82081.59716161652</v>
+        <v>8814.000986812611</v>
       </c>
       <c r="G9">
-        <v>80172.2320869148</v>
+        <v>8710.096689541198</v>
       </c>
       <c r="H9">
-        <v>80449.9945127739</v>
+        <v>9925.386237700395</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>100600.5624075892</v>
+        <v>5618.13226711952</v>
       </c>
       <c r="C10">
-        <v>101524.1418519848</v>
+        <v>6316.918317602161</v>
       </c>
       <c r="D10">
-        <v>102913.4508436736</v>
+        <v>7050.646271242866</v>
       </c>
       <c r="E10">
-        <v>97019.18275274623</v>
+        <v>7678.599485874864</v>
       </c>
       <c r="F10">
-        <v>74355.51585756427</v>
+        <v>8066.942634935605</v>
       </c>
       <c r="G10">
-        <v>70459.18250410285</v>
+        <v>8147.937705488424</v>
       </c>
       <c r="H10">
-        <v>75496.7540581997</v>
+        <v>8879.438667113485</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>47516.87469130602</v>
+        <v>1458.10352686177</v>
       </c>
       <c r="C11">
-        <v>45910.02054252609</v>
+        <v>1443.879529390426</v>
       </c>
       <c r="D11">
-        <v>49522.23657727913</v>
+        <v>1449.605912338694</v>
       </c>
       <c r="E11">
-        <v>54241.93464455566</v>
+        <v>1573.881492110518</v>
       </c>
       <c r="F11">
-        <v>52564.4291794559</v>
+        <v>1605.605433554878</v>
       </c>
       <c r="G11">
-        <v>61466.80395428945</v>
+        <v>1732.564261784276</v>
       </c>
       <c r="H11">
-        <v>71310.93925623414</v>
+        <v>1981.6510498992</v>
       </c>
     </row>
   </sheetData>
@@ -5233,262 +5047,262 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B2">
-        <v>6493.283647589642</v>
+        <v>3172.473786239698</v>
       </c>
       <c r="C2">
-        <v>7487.100959643988</v>
+        <v>3311.511452740852</v>
       </c>
       <c r="D2">
-        <v>7703.432128560876</v>
+        <v>3564.073505316333</v>
       </c>
       <c r="E2">
-        <v>7465.665139743463</v>
+        <v>3228.538668117818</v>
       </c>
       <c r="F2">
-        <v>5628.214528663377</v>
+        <v>3014.449755088964</v>
       </c>
       <c r="G2">
-        <v>5658.259882733477</v>
+        <v>2636.866734653131</v>
       </c>
       <c r="H2">
-        <v>5973.288196587259</v>
+        <v>2768.528054657719</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>3239.809877552518</v>
+        <v>2259.373992178905</v>
       </c>
       <c r="C3">
-        <v>3487.490531336175</v>
+        <v>2248.157965924398</v>
       </c>
       <c r="D3">
-        <v>3709.819689639848</v>
+        <v>2619.258666894391</v>
       </c>
       <c r="E3">
-        <v>4170.434558310068</v>
+        <v>2732.169465479401</v>
       </c>
       <c r="F3">
-        <v>3949.118198036011</v>
+        <v>2338.372166191891</v>
       </c>
       <c r="G3">
-        <v>4607.066141614315</v>
+        <v>2626.012476988451</v>
       </c>
       <c r="H3">
-        <v>5461.148479884744</v>
+        <v>2688.203138755492</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>5239.710763547787</v>
+        <v>2352.154849220429</v>
       </c>
       <c r="C4">
-        <v>4234.668206138663</v>
+        <v>1947.767331830808</v>
       </c>
       <c r="D4">
-        <v>5197.842863454706</v>
+        <v>2402.395759094152</v>
       </c>
       <c r="E4">
-        <v>4775.521176657605</v>
+        <v>2655.359763177428</v>
       </c>
       <c r="F4">
-        <v>4679.493027195905</v>
+        <v>2498.873606748816</v>
       </c>
       <c r="G4">
-        <v>4599.854327749604</v>
+        <v>2228.42737624131</v>
       </c>
       <c r="H4">
-        <v>4502.851415634712</v>
+        <v>2196.504673188834</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>4394.132999330884</v>
+        <v>2250.549856243756</v>
       </c>
       <c r="C5">
-        <v>4204.788223652821</v>
+        <v>2173.874922588606</v>
       </c>
       <c r="D5">
-        <v>4290.076862003756</v>
+        <v>2296.287723048022</v>
       </c>
       <c r="E5">
-        <v>4374.646158888421</v>
+        <v>2369.041428384672</v>
       </c>
       <c r="F5">
-        <v>4186.629486047486</v>
+        <v>1986.535166892604</v>
       </c>
       <c r="G5">
-        <v>4092.576086626515</v>
+        <v>2038.096461690961</v>
       </c>
       <c r="H5">
-        <v>4127.23748952912</v>
+        <v>2185.369207211458</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>3868.270602564638</v>
+        <v>2024.44554258837</v>
       </c>
       <c r="C6">
-        <v>4374.29326189429</v>
+        <v>1871.65267350978</v>
       </c>
       <c r="D6">
-        <v>4652.499933417455</v>
+        <v>1947.774876133902</v>
       </c>
       <c r="E6">
-        <v>4545.780041235781</v>
+        <v>1968.625512217067</v>
       </c>
       <c r="F6">
-        <v>3836.994310253001</v>
+        <v>1662.640832085144</v>
       </c>
       <c r="G6">
-        <v>3959.027813721383</v>
+        <v>1943.343957096236</v>
       </c>
       <c r="H6">
-        <v>4071.387857337673</v>
+        <v>2115.883799957814</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>4380.391640686081</v>
+        <v>1588.613967489104</v>
       </c>
       <c r="C7">
-        <v>4366.472576374491</v>
+        <v>1421.777959113189</v>
       </c>
       <c r="D7">
-        <v>3714.405594486615</v>
+        <v>1473.073665723211</v>
       </c>
       <c r="E7">
-        <v>4762.321387307023</v>
+        <v>1442.502216183882</v>
       </c>
       <c r="F7">
-        <v>3972.133905018012</v>
+        <v>1231.467524213055</v>
       </c>
       <c r="G7">
-        <v>4001.48932529272</v>
+        <v>1180.594503045243</v>
       </c>
       <c r="H7">
-        <v>3841.848118319698</v>
+        <v>1310.83239102885</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>3292.2601696461</v>
+        <v>1754.557850484489</v>
       </c>
       <c r="C8">
-        <v>3410.386282098805</v>
+        <v>1794.56674003875</v>
       </c>
       <c r="D8">
-        <v>3553.33181519781</v>
+        <v>1482.809226664122</v>
       </c>
       <c r="E8">
-        <v>3569.672351183841</v>
+        <v>1368.352740430421</v>
       </c>
       <c r="F8">
-        <v>3008.65429077765</v>
+        <v>1011.221722226748</v>
       </c>
       <c r="G8">
-        <v>2999.893383826268</v>
+        <v>1235.021342015474</v>
       </c>
       <c r="H8">
-        <v>2954.523054566487</v>
+        <v>1221.52785267131</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>3045.452463877305</v>
+        <v>759.9551051849603</v>
       </c>
       <c r="C9">
-        <v>2408.327676853064</v>
+        <v>724.2773061343435</v>
       </c>
       <c r="D9">
-        <v>3099.418817539931</v>
+        <v>718.1975220163888</v>
       </c>
       <c r="E9">
-        <v>3143.689724609596</v>
+        <v>720.5149025690118</v>
       </c>
       <c r="F9">
-        <v>2644.615210246332</v>
+        <v>550.0870706074166</v>
       </c>
       <c r="G9">
-        <v>2711.979883033032</v>
+        <v>549.9590050447141</v>
       </c>
       <c r="H9">
-        <v>2833.754764386316</v>
+        <v>627.5374897007002</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>3172.473786239698</v>
+        <v>376.09529582346</v>
       </c>
       <c r="C10">
-        <v>3311.511452740852</v>
+        <v>584.9292105219613</v>
       </c>
       <c r="D10">
-        <v>3564.073505316333</v>
+        <v>601.2584583227897</v>
       </c>
       <c r="E10">
-        <v>3228.538668117818</v>
+        <v>574.7162338129858</v>
       </c>
       <c r="F10">
-        <v>3014.449755088964</v>
+        <v>362.7856165782017</v>
       </c>
       <c r="G10">
-        <v>2636.866734653131</v>
+        <v>332.6313753356887</v>
       </c>
       <c r="H10">
-        <v>2768.528054657719</v>
+        <v>510.9356339174767</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>2665.597408271792</v>
+        <v>55.35223460952653</v>
       </c>
       <c r="C11">
-        <v>2859.018822802494</v>
+        <v>55.84204176306826</v>
       </c>
       <c r="D11">
-        <v>2878.511524191615</v>
+        <v>55.73256446048916</v>
       </c>
       <c r="E11">
-        <v>2826.660711865892</v>
+        <v>56.03838625801733</v>
       </c>
       <c r="F11">
-        <v>2447.246196390069</v>
+        <v>56.24754015437881</v>
       </c>
       <c r="G11">
-        <v>2580.134513390051</v>
+        <v>56.46024212490709</v>
       </c>
       <c r="H11">
-        <v>2692.516525103254</v>
+        <v>56.67718488355844</v>
       </c>
     </row>
   </sheetData>
@@ -5555,236 +5369,236 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>9142.859904174711</v>
+        <v>5026.579422508487</v>
       </c>
       <c r="C3">
-        <v>8870.059808479047</v>
+        <v>4757.320039610668</v>
       </c>
       <c r="D3">
-        <v>9218.141680535093</v>
+        <v>5087.671861983162</v>
       </c>
       <c r="E3">
-        <v>9521.306990904792</v>
+        <v>5283.195921616179</v>
       </c>
       <c r="F3">
-        <v>9332.115461457635</v>
+        <v>4592.682663058638</v>
       </c>
       <c r="G3">
-        <v>9387.3258393735</v>
+        <v>4728.85791718563</v>
       </c>
       <c r="H3">
-        <v>9569.652276880901</v>
+        <v>5044.402148006687</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B4">
-        <v>8841.4625443891</v>
+        <v>5339.984676332477</v>
       </c>
       <c r="C4">
-        <v>8911.666083897646</v>
+        <v>5900.494372263275</v>
       </c>
       <c r="D4">
-        <v>9189.691542493743</v>
+        <v>5970.742446430406</v>
       </c>
       <c r="E4">
-        <v>9066.378120189525</v>
+        <v>5648.456768259298</v>
       </c>
       <c r="F4">
-        <v>7533.305867881522</v>
+        <v>5291.512905265234</v>
       </c>
       <c r="G4">
-        <v>7462.540042699959</v>
+        <v>4597.700468084955</v>
       </c>
       <c r="H4">
-        <v>7788.162336254356</v>
+        <v>4973.516471972247</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>3920.765706972572</v>
+        <v>4905.364156786408</v>
       </c>
       <c r="C5">
-        <v>3762.403101108431</v>
+        <v>4624.254496302045</v>
       </c>
       <c r="D5">
-        <v>4071.426481604858</v>
+        <v>4870.962008856745</v>
       </c>
       <c r="E5">
-        <v>4490.883906531049</v>
+        <v>4981.020490416533</v>
       </c>
       <c r="F5">
-        <v>4274.172418080365</v>
+        <v>4200.995634617803</v>
       </c>
       <c r="G5">
-        <v>5018.847756626927</v>
+        <v>4259.796065567237</v>
       </c>
       <c r="H5">
-        <v>5949.655573059955</v>
+        <v>4420.89997107771</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>6331.667399202448</v>
+        <v>5113.860118335199</v>
       </c>
       <c r="C6">
-        <v>6230.650505053156</v>
+        <v>5244.63262300123</v>
       </c>
       <c r="D6">
-        <v>6665.089103981771</v>
+        <v>4365.679542553828</v>
       </c>
       <c r="E6">
-        <v>6571.073111846855</v>
+        <v>4128.030334648965</v>
       </c>
       <c r="F6">
-        <v>5565.439075371558</v>
+        <v>3758.163455684289</v>
       </c>
       <c r="G6">
-        <v>5633.265946533834</v>
+        <v>4199.69182160639</v>
       </c>
       <c r="H6">
-        <v>5801.910201119517</v>
+        <v>4144.33935144385</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>6269.792357060587</v>
+        <v>4192.702277261137</v>
       </c>
       <c r="C7">
-        <v>5991.960448639004</v>
+        <v>4268.259411788207</v>
       </c>
       <c r="D7">
-        <v>6222.888259499701</v>
+        <v>4335.135255934786</v>
       </c>
       <c r="E7">
-        <v>6362.423030319304</v>
+        <v>4722.44490251549</v>
       </c>
       <c r="F7">
-        <v>5446.462659889578</v>
+        <v>4454.465745976106</v>
       </c>
       <c r="G7">
-        <v>5545.423080791174</v>
+        <v>4051.679624950174</v>
       </c>
       <c r="H7">
-        <v>5783.842860298815</v>
+        <v>3965.554599917253</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>7075.401845225323</v>
+        <v>3386.732580029267</v>
       </c>
       <c r="C8">
-        <v>5960.622237500155</v>
+        <v>3078.936408328321</v>
       </c>
       <c r="D8">
-        <v>6280.910045539138</v>
+        <v>3119.666098781772</v>
       </c>
       <c r="E8">
-        <v>6460.297604949214</v>
+        <v>3149.744287493825</v>
       </c>
       <c r="F8">
-        <v>5356.513564832716</v>
+        <v>2677.458383083378</v>
       </c>
       <c r="G8">
-        <v>5417.224307666384</v>
+        <v>2699.592277329565</v>
       </c>
       <c r="H8">
-        <v>5658.81121884759</v>
+        <v>2812.170963870772</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>5026.579422508487</v>
+        <v>1507.894918888138</v>
       </c>
       <c r="C9">
-        <v>4757.320039610668</v>
+        <v>1561.779732861603</v>
       </c>
       <c r="D9">
-        <v>5087.671861983162</v>
+        <v>1698.348504832454</v>
       </c>
       <c r="E9">
-        <v>5283.195921616179</v>
+        <v>1893.728931912592</v>
       </c>
       <c r="F9">
-        <v>4592.682663058638</v>
+        <v>1911.473917853591</v>
       </c>
       <c r="G9">
-        <v>4728.85791718563</v>
+        <v>2025.128317762059</v>
       </c>
       <c r="H9">
-        <v>5044.402148006687</v>
+        <v>2246.993040216731</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>5552.237975347176</v>
+        <v>1031.612464985742</v>
       </c>
       <c r="C10">
-        <v>5227.96455044483</v>
+        <v>956.8661575979147</v>
       </c>
       <c r="D10">
-        <v>5313.903175867546</v>
+        <v>981.2230454392823</v>
       </c>
       <c r="E10">
-        <v>5369.390184338155</v>
+        <v>1017.00315938478</v>
       </c>
       <c r="F10">
-        <v>4536.30613280441</v>
+        <v>781.8820676158554</v>
       </c>
       <c r="G10">
-        <v>4685.564908413757</v>
+        <v>801.9753814603392</v>
       </c>
       <c r="H10">
-        <v>4995.683537092679</v>
+        <v>939.8683170562483</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>5339.984676332477</v>
+        <v>243.0130617967257</v>
       </c>
       <c r="C11">
-        <v>5900.494372263275</v>
+        <v>287.3818124548912</v>
       </c>
       <c r="D11">
-        <v>5970.742446430406</v>
+        <v>332.0870222456269</v>
       </c>
       <c r="E11">
-        <v>5648.456768259298</v>
+        <v>366.5170368639766</v>
       </c>
       <c r="F11">
-        <v>5291.512905265234</v>
+        <v>394.3704719239603</v>
       </c>
       <c r="G11">
-        <v>4597.700468084955</v>
+        <v>405.9205327385756</v>
       </c>
       <c r="H11">
-        <v>4973.516471972247</v>
+        <v>457.3969085148844</v>
       </c>
     </row>
   </sheetData>
